--- a/data/steel/steel_WholeMill_calcs.xlsx
+++ b/data/steel/steel_WholeMill_calcs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="90">
   <si>
     <t>CaCO3</t>
   </si>
@@ -99,84 +99,30 @@
     <t>new steel</t>
   </si>
   <si>
-    <t>sinter coal energy</t>
-  </si>
-  <si>
-    <t>coke coal energy</t>
-  </si>
-  <si>
-    <t>BF coal energy</t>
-  </si>
-  <si>
     <t>energycontent</t>
   </si>
   <si>
-    <t>coal__coke (eq)</t>
-  </si>
-  <si>
-    <t>coal__BF (eq)</t>
-  </si>
-  <si>
-    <t>coal__sinter (eq)</t>
-  </si>
-  <si>
     <t>sinter biofuel energy</t>
   </si>
   <si>
-    <t>coke biofuel energy</t>
-  </si>
-  <si>
     <t>BF biofuel energy</t>
   </si>
   <si>
-    <t>sinter coal (eq) energy</t>
-  </si>
-  <si>
-    <t>coke coal (eq) energy</t>
-  </si>
-  <si>
-    <t>BF coal (eq) energy</t>
-  </si>
-  <si>
     <t>sinter cofire rate</t>
   </si>
   <si>
-    <t>coke cofire rate</t>
-  </si>
-  <si>
     <t>BF cofire rate</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
-    <t>coal__sinter</t>
-  </si>
-  <si>
-    <t>coal__coke</t>
-  </si>
-  <si>
-    <t>coal__BF</t>
-  </si>
-  <si>
     <t>biofuel__sinter</t>
   </si>
   <si>
-    <t>biofuel__coke</t>
-  </si>
-  <si>
     <t>biofuel__BF</t>
   </si>
   <si>
-    <t>coal__sinter+coke</t>
-  </si>
-  <si>
-    <t>biofuel__sinter+coke</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -207,12 +153,6 @@
     <t>returnvalue</t>
   </si>
   <si>
-    <t>energy in combusted coal</t>
-  </si>
-  <si>
-    <t>energy in combusted biofuel</t>
-  </si>
-  <si>
     <t>iron</t>
   </si>
   <si>
@@ -252,21 +192,9 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>other energy</t>
-  </si>
-  <si>
     <t>other fuel use</t>
   </si>
   <si>
-    <t>Sinter Plant coal Demand</t>
-  </si>
-  <si>
-    <t>Coke Plant coal Demand</t>
-  </si>
-  <si>
-    <t>BF coal Demand</t>
-  </si>
-  <si>
     <t>CO2__from CaO</t>
   </si>
   <si>
@@ -277,6 +205,93 @@
   </si>
   <si>
     <t>slag</t>
+  </si>
+  <si>
+    <t>lookup ratio</t>
+  </si>
+  <si>
+    <t>LHV</t>
+  </si>
+  <si>
+    <t>lookup ratio-fuels</t>
+  </si>
+  <si>
+    <t>secondary fuel</t>
+  </si>
+  <si>
+    <t>CONSUMED biofuel energy</t>
+  </si>
+  <si>
+    <t>CONSUMED secondary energy</t>
+  </si>
+  <si>
+    <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>fossil fuel__sinter (eq)</t>
+  </si>
+  <si>
+    <t>fossil fuel__BF (eq)</t>
+  </si>
+  <si>
+    <t>sinter fossil fuel (eq) energy</t>
+  </si>
+  <si>
+    <t>BF fossil fuel (eq) energy</t>
+  </si>
+  <si>
+    <t>sinter fossil fuel energy</t>
+  </si>
+  <si>
+    <t>BF fossil fuel energy</t>
+  </si>
+  <si>
+    <t>fossil fuel__sinter</t>
+  </si>
+  <si>
+    <t>fossil fuel__BF</t>
+  </si>
+  <si>
+    <t>fossil fuel</t>
+  </si>
+  <si>
+    <t>CONSUMED fossil fuel energy</t>
+  </si>
+  <si>
+    <t>fossil fuel__coke oven (eq)</t>
+  </si>
+  <si>
+    <t>coke oven fossil fuel (eq) energy</t>
+  </si>
+  <si>
+    <t>coke oven biofuel energy</t>
+  </si>
+  <si>
+    <t>coke oven cofire rate</t>
+  </si>
+  <si>
+    <t>coke oven fossil fuel energy</t>
+  </si>
+  <si>
+    <t>fossil fuel__coke oven</t>
+  </si>
+  <si>
+    <t>biofuel__coke oven</t>
+  </si>
+  <si>
+    <t>fossil fuel__sinter+coke oven</t>
+  </si>
+  <si>
+    <t>biofuel__sinter+coke oven</t>
+  </si>
+  <si>
+    <t>Sinter Plant Fuel Demand</t>
+  </si>
+  <si>
+    <t>Coke Oven Fuel Demand</t>
+  </si>
+  <si>
+    <t>BF Fuel Demand</t>
   </si>
 </sst>
 </file>
@@ -631,15 +646,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
@@ -684,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -699,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,13 +728,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,42 +742,42 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
+      <c r="B5" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -770,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -793,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -822,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,13 +880,13 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -885,13 +900,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -899,22 +914,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -937,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,13 +960,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -960,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -968,7 +983,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -977,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -986,12 +1001,12 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1000,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1008,13 +1023,13 @@
       <c r="F16" t="s">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>79</v>
+      <c r="G16" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1023,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1031,82 +1046,82 @@
       <c r="F17" t="s">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>80</v>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -1115,21 +1130,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1138,21 +1153,21 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1161,21 +1176,21 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1184,21 +1199,21 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1207,21 +1222,21 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1230,141 +1245,147 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -1373,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1381,16 +1402,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1399,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1407,16 +1428,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1425,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1433,10 +1454,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1451,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1459,27 +1480,27 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1488,13 +1509,13 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,21 +1608,21 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1610,13 +1631,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1647,19 +1668,19 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1726,39 +1747,39 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1769,19 +1790,19 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,19 +1810,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1859,39 +1880,39 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,19 +1923,19 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1922,19 +1943,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_WholeMill_calcs.xlsx
+++ b/data/steel/steel_WholeMill_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AC0B1-CB0F-244A-A0F1-1F9F26B5B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="465" windowWidth="23025" windowHeight="17055"/>
+    <workbookView xWindow="4420" yWindow="460" windowWidth="23020" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="15" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>CaCO3</t>
   </si>
@@ -156,9 +157,6 @@
     <t>iron</t>
   </si>
   <si>
-    <t>Carbon and Oxygen</t>
-  </si>
-  <si>
     <t>Inflow</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>Process CO2</t>
   </si>
   <si>
-    <t>Emission</t>
-  </si>
-  <si>
     <t>ReturnValue</t>
   </si>
   <si>
@@ -183,18 +178,12 @@
     <t>outflow</t>
   </si>
   <si>
-    <t>CONSUMED__imported electricity</t>
-  </si>
-  <si>
     <t>electricity__import</t>
   </si>
   <si>
     <t>ratio</t>
   </si>
   <si>
-    <t>other fuel use</t>
-  </si>
-  <si>
     <t>CO2__from CaO</t>
   </si>
   <si>
@@ -292,12 +281,30 @@
   </si>
   <si>
     <t>BF Fuel Demand</t>
+  </si>
+  <si>
+    <t>CONSUMED imported electricity</t>
+  </si>
+  <si>
+    <t>CONSUMED carbon and oxygen</t>
+  </si>
+  <si>
+    <t>inflow</t>
+  </si>
+  <si>
+    <t>returnValue</t>
+  </si>
+  <si>
+    <t>other energy use</t>
+  </si>
+  <si>
+    <t>coinflows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,26 +684,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -694,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -717,7 +758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -737,7 +778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -748,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -756,31 +797,31 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -803,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -826,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -846,7 +887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -869,7 +910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -889,7 +930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -900,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -909,18 +950,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -929,21 +970,21 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -952,21 +993,21 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -981,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -992,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1001,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1024,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1047,21 +1088,21 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1070,18 +1111,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1090,18 +1131,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1110,12 +1151,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1133,18 +1174,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1153,15 +1194,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1179,18 +1220,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1202,18 +1243,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1222,21 +1263,21 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1248,41 +1289,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1291,18 +1332,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1311,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1331,18 +1372,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1351,7 +1392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1368,24 +1409,24 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -1394,24 +1435,24 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1420,13 +1461,13 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1446,18 +1487,18 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1478,18 +1519,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -1498,7 +1539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -1525,27 +1566,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1597,7 +1638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1614,13 +1655,13 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1640,7 +1681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1651,30 +1692,30 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1690,24 +1731,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1739,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1747,19 +1788,19 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1767,62 +1808,82 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1831,16 +1892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1880,19 +1941,19 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1900,62 +1961,82 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_WholeMill_calcs.xlsx
+++ b/data/steel/steel_WholeMill_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AC0B1-CB0F-244A-A0F1-1F9F26B5B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE233D2-6991-7E43-9C9F-924546E715E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="460" windowWidth="23020" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="940" windowWidth="23020" windowHeight="17060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="15" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="EAF bb" sheetId="17" r:id="rId3"/>
     <sheet name="BF EAF bb" sheetId="18" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="93">
   <si>
     <t>CaCO3</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>coinflows</t>
+  </si>
+  <si>
+    <t>iron ore and steel scrap</t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1573,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1649,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1666,7 +1669,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1735,7 +1738,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1811,7 +1814,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1828,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1944,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -1964,7 +1967,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1981,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>

--- a/data/steel/steel_WholeMill_calcs.xlsx
+++ b/data/steel/steel_WholeMill_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE233D2-6991-7E43-9C9F-924546E715E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE8D37-AB23-5B48-85D7-E687E9DC6E34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="940" windowWidth="23020" windowHeight="17060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="940" windowWidth="25460" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="15" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>lookup ratio-fuels</t>
   </si>
   <si>
-    <t>secondary fuel</t>
-  </si>
-  <si>
     <t>CONSUMED biofuel energy</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>iron ore and steel scrap</t>
+  </si>
+  <si>
+    <t>secondary fuel__TGR</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -809,16 +809,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1119,13 +1119,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1139,13 +1139,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1182,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1228,13 +1228,13 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1251,13 +1251,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1266,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1274,13 +1274,13 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1297,13 +1297,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -1320,13 +1320,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1340,13 +1340,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1380,13 +1380,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1423,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -1438,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1449,13 +1449,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1464,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1481,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1490,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1527,13 +1527,13 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1669,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1718,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1814,7 +1814,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1831,16 +1831,16 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1880,7 +1880,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
@@ -1898,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1947,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -1967,7 +1967,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1984,19 +1984,19 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2033,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>

--- a/data/steel/steel_WholeMill_calcs.xlsx
+++ b/data/steel/steel_WholeMill_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE8D37-AB23-5B48-85D7-E687E9DC6E34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F311A-170E-DC4E-929F-4D2E9D17774D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="940" windowWidth="25460" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="620" windowWidth="25460" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="15" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="90">
   <si>
     <t>CaCO3</t>
   </si>
@@ -196,15 +196,6 @@
     <t>slag</t>
   </si>
   <si>
-    <t>lookup ratio</t>
-  </si>
-  <si>
-    <t>LHV</t>
-  </si>
-  <si>
-    <t>lookup ratio-fuels</t>
-  </si>
-  <si>
     <t>CONSUMED biofuel energy</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
     <t>fossil fuel__sinter (eq)</t>
   </si>
   <si>
-    <t>fossil fuel__BF (eq)</t>
-  </si>
-  <si>
     <t>sinter fossil fuel (eq) energy</t>
   </si>
   <si>
@@ -235,12 +223,6 @@
     <t>fossil fuel__sinter</t>
   </si>
   <si>
-    <t>fossil fuel__BF</t>
-  </si>
-  <si>
-    <t>fossil fuel</t>
-  </si>
-  <si>
     <t>CONSUMED fossil fuel energy</t>
   </si>
   <si>
@@ -302,6 +284,15 @@
   </si>
   <si>
     <t>secondary fuel__TGR</t>
+  </si>
+  <si>
+    <t>fuel__BF (eq)</t>
+  </si>
+  <si>
+    <t>fuel__BF</t>
+  </si>
+  <si>
+    <t>CONSUMED BF fuel energy</t>
   </si>
 </sst>
 </file>
@@ -690,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -801,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -809,16 +800,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -964,7 +955,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1036,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1045,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1059,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1068,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1091,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1119,13 +1110,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1139,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1159,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1182,13 +1173,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1197,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1228,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1251,13 +1242,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1266,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1274,13 +1265,13 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1297,22 +1288,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1320,13 +1308,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1340,13 +1328,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1380,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1412,10 +1400,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1423,22 +1408,22 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1449,22 +1434,22 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1475,22 +1460,22 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1501,25 +1486,19 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1527,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -1547,13 +1526,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -1652,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1669,13 +1648,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1718,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1814,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1831,16 +1810,16 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1880,7 +1859,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
@@ -1947,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -1967,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -1984,19 +1963,19 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2033,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
